--- a/EndothelialCluster10.xlsx
+++ b/EndothelialCluster10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dazzl\Desktop\Gene Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dazzl\Desktop\Analysis-Genes-Endothelial-Cells-Mouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909E21C3-B73D-4687-AF6A-9153BA43AE6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BD69C1-C056-4864-95BF-6A87E88B5E69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="480" windowWidth="7570" windowHeight="9600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,21 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="79">
   <si>
-    <t>Gene Name</t>
-  </si>
-  <si>
-    <t>Gene Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max Expression </t>
-  </si>
-  <si>
-    <t>Max Cluster</t>
-  </si>
-  <si>
-    <t>Second Cluster</t>
-  </si>
-  <si>
     <t>Kyat3</t>
   </si>
   <si>
@@ -262,6 +247,21 @@
   </si>
   <si>
     <t>Csgalnact1</t>
+  </si>
+  <si>
+    <t>GeneName</t>
+  </si>
+  <si>
+    <t>GeneType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxExpression </t>
+  </si>
+  <si>
+    <t>MaxCluster</t>
+  </si>
+  <si>
+    <t>SecondCluster</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -596,27 +596,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>464</v>
@@ -630,10 +630,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>627</v>
@@ -647,10 +647,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>484</v>
@@ -664,10 +664,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1290</v>
@@ -681,10 +681,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>1540</v>
@@ -698,10 +698,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>430</v>
@@ -715,10 +715,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>534</v>
@@ -732,10 +732,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>868</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>920</v>
@@ -766,10 +766,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>505</v>
@@ -783,10 +783,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>609</v>
@@ -800,10 +800,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>929</v>
@@ -817,10 +817,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>472</v>
@@ -834,10 +834,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>488</v>
@@ -851,10 +851,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>796</v>
@@ -868,10 +868,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>492</v>
@@ -885,10 +885,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>448</v>
@@ -902,10 +902,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>430</v>
@@ -919,10 +919,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>486</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>2430</v>
@@ -953,10 +953,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>660</v>
@@ -970,10 +970,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>585</v>
@@ -987,10 +987,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>1120</v>
@@ -1004,10 +1004,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>806</v>
@@ -1021,10 +1021,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>417</v>
@@ -1038,10 +1038,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>871</v>
@@ -1055,10 +1055,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>458</v>
@@ -1072,10 +1072,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>539</v>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>629</v>
@@ -1106,10 +1106,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>574</v>
@@ -1123,10 +1123,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>1860</v>
@@ -1140,10 +1140,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>441</v>
@@ -1157,10 +1157,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>563</v>
@@ -1174,10 +1174,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>948</v>
@@ -1191,10 +1191,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>441</v>
@@ -1208,10 +1208,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>1010</v>
@@ -1225,10 +1225,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>417</v>
@@ -1242,10 +1242,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>678</v>
@@ -1259,10 +1259,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>1620</v>
@@ -1276,10 +1276,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>512</v>
@@ -1293,10 +1293,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>447</v>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>1510</v>
@@ -1327,10 +1327,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>406</v>
@@ -1344,10 +1344,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>418</v>
@@ -1361,10 +1361,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>1100</v>
@@ -1378,10 +1378,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>521</v>
@@ -1395,10 +1395,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>478</v>
@@ -1412,10 +1412,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>423</v>
@@ -1429,10 +1429,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>518</v>
@@ -1446,10 +1446,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>546</v>
@@ -1463,10 +1463,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>547</v>
@@ -1480,10 +1480,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>468</v>
@@ -1497,10 +1497,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>524</v>
@@ -1514,10 +1514,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>625</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>466</v>
@@ -1548,10 +1548,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>468</v>
@@ -1565,10 +1565,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <v>491</v>
@@ -1582,10 +1582,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>1290</v>
@@ -1599,10 +1599,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>713</v>
@@ -1616,10 +1616,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>403</v>
@@ -1633,10 +1633,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>459</v>
@@ -1650,10 +1650,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>763</v>
@@ -1667,10 +1667,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>707</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>669</v>
@@ -1701,10 +1701,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C66">
         <v>513</v>
@@ -1718,10 +1718,10 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C67">
         <v>1820</v>
@@ -1735,10 +1735,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C68">
         <v>556</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C69">
         <v>503</v>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C70">
         <v>786</v>
@@ -1786,10 +1786,10 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>721</v>
@@ -1803,10 +1803,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C72">
         <v>1170</v>
@@ -1820,10 +1820,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>430</v>
@@ -1837,10 +1837,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C74">
         <v>616</v>
